--- a/REGULAR/OJT/COTONER, NELIA C..xlsx
+++ b/REGULAR/OJT/COTONER, NELIA C..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="180">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1469,7 +1469,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1576,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1702,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1863,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1922,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1987,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2030,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2105,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2291,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2357,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2415,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2481,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2537,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2612,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2655,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2721,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2777,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2875,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2938,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3386,9 +3386,9 @@
   <dimension ref="A2:K405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A383"/>
-      <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="K403" sqref="K403"/>
+      <pane ySplit="2730" topLeftCell="A389" activePane="bottomLeft"/>
+      <selection activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,7 +3551,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>316.04000000000002</v>
+        <v>317.54000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3561,7 +3561,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>421.08000000000004</v>
+        <v>423.58000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12342,15 +12342,17 @@
       <c r="B402" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C402" s="13"/>
+      <c r="C402" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D402" s="38">
         <v>1</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G402" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H402" s="38"/>
       <c r="I402" s="9"/>
@@ -12364,13 +12366,15 @@
         <v>45108</v>
       </c>
       <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="38"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="38"/>
       <c r="I403" s="9"/>
@@ -12378,10 +12382,16 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="39"/>
-      <c r="B404" s="20"/>
+      <c r="A404" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B404" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="C404" s="13"/>
-      <c r="D404" s="38"/>
+      <c r="D404" s="38">
+        <v>1</v>
+      </c>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
       <c r="G404" s="41" t="str">
@@ -12391,7 +12401,9 @@
       <c r="H404" s="38"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="59">
+        <v>45164</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
@@ -12575,7 +12587,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>737.12000000000012</v>
+        <v>741.12000000000012</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
